--- a/biology/Zoologie/Bonobos_(film)/Bonobos_(film).xlsx
+++ b/biology/Zoologie/Bonobos_(film)/Bonobos_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonobos est un  documentaire français réalisé par Alain Tixier, sorti en 2011.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Béni, un bonobo, est né dans la forêt équatoriale de la République démocratique du Congo. Capturé par des braconniers, il se retrouve dans une cage posée sur le comptoir d'un bar à Kinshasa, où on le maltraite. Il est finalement recueilli par Claudine André, fondatrice et propriétaire du refuge pour bonobos Lola ya Bonobo[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Béni, un bonobo, est né dans la forêt équatoriale de la République démocratique du Congo. Capturé par des braconniers, il se retrouve dans une cage posée sur le comptoir d'un bar à Kinshasa, où on le maltraite. Il est finalement recueilli par Claudine André, fondatrice et propriétaire du refuge pour bonobos Lola ya Bonobo.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Bonobos
 Réalisation : Alain Tixier
@@ -586,12 +602,14 @@
           <t>Participants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Claudine André : elle-même[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Claudine André : elle-même
 Fanny Mehl : elle-même
-Sandrine Bonnaire : voix de Claudine André[1]
-Emmanuel Curtil : voix de Béni[1]</t>
+Sandrine Bonnaire : voix de Claudine André
+Emmanuel Curtil : voix de Béni</t>
         </is>
       </c>
     </row>
@@ -619,9 +637,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est un docu drama, un documentaire dans lequel une fiction a été intégrée. La partie documentaire animalier a généralement intéressé[2]. La partie fiction a été quelquefois moins bien accueillie, Thomas Sotinel dans le journal Le Monde parlant de guimauve et commentant : « Dans le livret remis à la presse, il est expliqué que son travail pour sauver les jeunes singes captifs s'accompagne d'une action en direction des enfants de la rue de Kinshasa. On est face à un cas exceptionnel : le dossier de presse est plus intéressant que le film »[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est un docu drama, un documentaire dans lequel une fiction a été intégrée. La partie documentaire animalier a généralement intéressé. La partie fiction a été quelquefois moins bien accueillie, Thomas Sotinel dans le journal Le Monde parlant de guimauve et commentant : « Dans le livret remis à la presse, il est expliqué que son travail pour sauver les jeunes singes captifs s'accompagne d'une action en direction des enfants de la rue de Kinshasa. On est face à un cas exceptionnel : le dossier de presse est plus intéressant que le film ».
 </t>
         </is>
       </c>
